--- a/CMToolMapping.xlsx
+++ b/CMToolMapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skamal/Documents/sl-25Oct20-28Nov20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0438893F-C68B-AE43-928E-5DD43634B016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E4C3E2-43B8-D048-AB94-69FA31568C66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{D8F65F47-F70C-014F-AC10-AA4749C1D6AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Keywords</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>S.No.</t>
+  </si>
+  <si>
+    <t>Community examples</t>
+  </si>
+  <si>
+    <t>Puppe Forge</t>
+  </si>
+  <si>
+    <t>Ansible Galaxy</t>
+  </si>
+  <si>
+    <t>Chef Supermarket</t>
   </si>
 </sst>
 </file>
@@ -511,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBE6EF1-E951-9C45-9184-27F585500954}">
   <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,10 +676,18 @@
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
